--- a/Ubah Email - ATS-13.xlsx
+++ b/Ubah Email - ATS-13.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-Seamless-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Sapto\git\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8265" windowHeight="5325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8268" windowHeight="5328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>oldEmail</t>
   </si>
@@ -69,12 +69,18 @@
   </si>
   <si>
     <t>wrongemail</t>
+  </si>
+  <si>
+    <t>inannalux98@gmail.com</t>
+  </si>
+  <si>
+    <t>success</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,20 +403,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -435,7 +441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -446,7 +452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -460,7 +466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -474,7 +480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -486,6 +492,17 @@
       </c>
       <c r="D6" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -495,6 +512,8 @@
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="A5" r:id="rId4"/>
     <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ubah Email - ATS-13.xlsx
+++ b/Ubah Email - ATS-13.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Sapto\git\ACC-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-Seamless-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8268" windowHeight="5328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8265" windowHeight="5325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>oldEmail</t>
   </si>
@@ -69,18 +69,12 @@
   </si>
   <si>
     <t>wrongemail</t>
-  </si>
-  <si>
-    <t>inannalux98@gmail.com</t>
-  </si>
-  <si>
-    <t>success</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,20 +397,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -441,7 +435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -452,7 +446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -466,7 +460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -480,7 +474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -492,17 +486,6 @@
       </c>
       <c r="D6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -512,8 +495,6 @@
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="A5" r:id="rId4"/>
     <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ubah Email - ATS-13.xlsx
+++ b/Ubah Email - ATS-13.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-Seamless-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>oldEmail</t>
   </si>
@@ -41,18 +41,9 @@
     <t>applicationtester77@gmail.com</t>
   </si>
   <si>
-    <t>emptyOldEmail</t>
-  </si>
-  <si>
     <t>failed</t>
   </si>
   <si>
-    <t>fairytailfg@gmail.com</t>
-  </si>
-  <si>
-    <t>emptyNewEmail</t>
-  </si>
-  <si>
     <t>sumtingwong</t>
   </si>
   <si>
@@ -69,6 +60,18 @@
   </si>
   <si>
     <t>wrongemail</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>lieavengersassassin@gmail.com</t>
+  </si>
+  <si>
+    <t>app bwahaha</t>
+  </si>
+  <si>
+    <t>newEmailSpace</t>
   </si>
 </sst>
 </file>
@@ -397,16 +400,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -425,76 +428,83 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="A5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
